--- a/kdgan/pltfigure/mdlcompr_pe.xlsx
+++ b/kdgan/pltfigure/mdlcompr_pe.xlsx
@@ -12,6 +12,8 @@
     <sheet name="1h" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="5h" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="1k" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="5k" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="10k" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1839,4 +1841,742 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.9861000180244446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.986299991607666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9861999750137329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9858999848365784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9857000112533569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.988099992275238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9894999861717224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9889000058174133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9884999990463257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9883999824523926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9889000058174133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9890000224113464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9889000058174133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9887999892234802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9887999892234802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9886999726295471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9891999959945679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.989799976348877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9894000291824341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9894999861717224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9891999959945679</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9897000193595886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9891999959945679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9883000254631042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9891999959945679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.9902999997138977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9894000291824341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.989300012588501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9896000027656555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9896000027656555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9921000003814697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9918000102043152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9911999702453613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9916999936103821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9919999837875366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9925000071525574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.9919999837875366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9922000169754028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9919000267982483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9916999936103821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9922999739646912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9921000003814697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9922000169754028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9926000237464905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9921000003814697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9914000034332275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9921000003814697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9921000003814697</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9921000003814697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9916999936103821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>